--- a/server/assets/修改后区县节点统计表3.10.xlsx
+++ b/server/assets/修改后区县节点统计表3.10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>INTO中国社区首批区县节点及第四批城市节点统计表</t>
   </si>
@@ -61,7 +61,7 @@
     <t>已改</t>
   </si>
   <si>
-    <t>延边朝鲜族自治州，已经加上</t>
+    <t>改为延边朝鲜族自治州，已录入</t>
   </si>
   <si>
     <t>何琴</t>
@@ -100,7 +100,7 @@
     <t>600U+3000TOX</t>
   </si>
   <si>
-    <t>东营区？</t>
+    <t>东营区？，未录入</t>
   </si>
   <si>
     <t>康秀军</t>
@@ -130,6 +130,9 @@
     <t>0x9a4a0ba6847db383151789301F71aEa0F4096EC3</t>
   </si>
   <si>
+    <t>这个地区之前录入过，未录入</t>
+  </si>
+  <si>
     <t>聚合社区</t>
   </si>
   <si>
@@ -187,7 +190,7 @@
     <t>0x22CDdf3Cb035cE231A5e8b39AF544E000c075787</t>
   </si>
   <si>
-    <t>查不到江东新区</t>
+    <t>查不到江东新区，，未录入</t>
   </si>
   <si>
     <t>王朝</t>
@@ -208,7 +211,7 @@
     <t>0x26F4aC5EdE1dbFC4d2Ce9514BbBD417334773338</t>
   </si>
   <si>
-    <t>沂南县？</t>
+    <t>沂南县？，未录入</t>
   </si>
   <si>
     <t>张丽</t>
@@ -220,6 +223,9 @@
     <t>0xbf975AA0D503D7D5BEc508bD955f966C34075978</t>
   </si>
   <si>
+    <t>该地区的先锋已经存在,且状态正常，，未录入</t>
+  </si>
+  <si>
     <t>房路杰</t>
   </si>
   <si>
@@ -259,7 +265,7 @@
     <t>0x4FA48aC8A7a336f727c7EE52cC8351026Ec94b0B</t>
   </si>
   <si>
-    <t>没有长安镇</t>
+    <t>没有长安镇，，未录入</t>
   </si>
   <si>
     <t>志同社区</t>
@@ -1354,7 +1360,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1367,7 +1373,7 @@
     <col min="6" max="6" width="21.1785714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.0892857142857" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.4375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.6696428571429" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.79464285714286" style="1"/>
   </cols>
   <sheetData>
@@ -1562,7 +1568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="30.05" customHeight="1" spans="1:8">
+    <row r="9" ht="30.05" customHeight="1" spans="1:9">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1586,6 +1592,9 @@
       </c>
       <c r="H9" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="30.05" customHeight="1" spans="1:8">
@@ -1593,16 +1602,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
@@ -1620,13 +1629,13 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>12</v>
@@ -1644,13 +1653,13 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -1668,13 +1677,13 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
@@ -1692,13 +1701,13 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -1716,13 +1725,13 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>12</v>
@@ -1734,7 +1743,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" ht="30.05" customHeight="1" spans="1:8">
@@ -1743,13 +1752,13 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
@@ -1767,13 +1776,13 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>23</v>
@@ -1785,22 +1794,22 @@
         <v>14</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" ht="30.05" customHeight="1" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" ht="30.05" customHeight="1" spans="1:9">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>12</v>
@@ -1810,6 +1819,9 @@
       </c>
       <c r="H18" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" ht="30.05" customHeight="1" spans="1:8">
@@ -1818,13 +1830,13 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>23</v>
@@ -1842,13 +1854,13 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>23</v>
@@ -1865,16 +1877,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>23</v>
@@ -1889,16 +1901,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>23</v>
@@ -1908,7 +1920,7 @@
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="30.05" customHeight="1" spans="1:8">
@@ -1916,16 +1928,16 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>12</v>
@@ -1944,10 +1956,10 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>23</v>
@@ -1966,10 +1978,10 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>23</v>
